--- a/scoring/tests/CSEI/CSEI9A.xlsx
+++ b/scoring/tests/CSEI/CSEI9A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>گویه</t>
   </si>
@@ -118,6 +118,96 @@
   </si>
   <si>
     <t xml:space="preserve">جملات زير را به دقت بخوانيد و در صورتي‌كه هر يك از آنها با وضعيت فعلي شما مطابقت دارد: پاسخ (بلي) و چنانچه به هيچ شكلي با وضعيت شما مطابقت ندارد (خير) را انتخاب کنید.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من خودم را درك مي‌كنم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مثل من بودن خيلي سخت است. </t>
+  </si>
+  <si>
+    <t>همه چيز در زندگي من گره خورده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بچه ها معمولاً از عقيده من پيروي مي‌كنند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيچ‌كس در خانه به من توجه زيادي نمي‌كند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرگز سرزنش نمي‌شوم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آن‌طور كه دوست دارم تكاليف مدرسه‌ام را انجام نمي‌دهم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مي‌توانم تصميم بگيرم و به آن پايبند بمانم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من واقعاً دوست ندارم كه يك پسر/ دختر باشم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من خود را دست كم مي‌گيرم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوست ندارم با ديگران باشم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خيلي وقت‌ها دوست دارم خانه را ترك كنم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من اصلاً كمرو نيستم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من اغلب در مدرسه احساس دلخوري مي‌كنم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من اغلب احساس مي‌كنم كه از خود شرمنده‌ام. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من به زيبايي ديگران نيستم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر چيزي براي گفتن داشته باشم معمولاً آن را مي‌گويم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بچه‌ها اغلب از من ایراد می‌گیرند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پدر و مادرم مرا ترك مي كنند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من هميشه راست مي‌گويم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">معلمان در من احساس ناخوشايند بي‌كفايتي به وجود مي‌آورند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">برايم مهم نيست كه بر من چه مي‌گذرد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فردي شكست‌خورده هستم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنگام سرزنش به آساني تسليم مي‌شوم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بچه هاي ديگر بيشتر از من مورد علاقه ديگران هستند. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اغلب اوقات اين احساس را دارم كه والدينم مرا تحت فشار قرار مي‌دهند. </t>
+  </si>
+  <si>
+    <t>هميشه مي‌دانم كه به مردم چه بگويم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اغلب در مدرسه دلسرد مي‌شوم. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">معمولاً چيزي مرا آزار مي‌دهد. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نمي‌توان به من اعتماد كرد. </t>
   </si>
 </sst>
 </file>
@@ -435,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +693,156 @@
         <v>28</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
